--- a/APP/component/doc/PIS/Schedule_APPLog.xlsx
+++ b/APP/component/doc/PIS/Schedule_APPLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="0" windowWidth="28720" windowHeight="20160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2840" yWindow="40" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Item Schedule" sheetId="3" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total Hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppLog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +242,10 @@
   </si>
   <si>
     <t>N 分鐘, 累積至M 筆傳至API, 再清除Ｍ筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,20 +646,20 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1072,17 +1072,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9"/>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="5" spans="1:9" ht="62" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>34</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="7" spans="1:9" ht="159" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>38</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="17" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1466,15 +1466,15 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1">
       <c r="A33" s="17"/>
@@ -1506,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1526,7 +1526,7 @@
   <sheetData>
     <row r="3" spans="2:12">
       <c r="F3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -1536,13 +1536,13 @@
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1557,7 +1557,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1673,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -1692,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -1741,10 +1741,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1760,10 +1760,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1779,10 +1779,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
